--- a/專題-報告171124/事件表.xlsx
+++ b/專題-報告171124/事件表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\08.山水專題\專題-報告171123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\08.山水專題\專題-報告171124\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="125">
   <si>
     <t>事件名稱</t>
   </si>
@@ -367,18 +367,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用者查詢附近住宿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>查詢住宿</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用者填寫產生住宿訂單</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>管理者修改住宿訂單</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -387,46 +379,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用者建立搭車紀錄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者修改搭車行程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者查詢搭車時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者刪除清單</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者修改景點</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者查詢附近景點</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>查詢景點</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用者查詢&amp;選擇景點名產</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者查詢&amp;選擇推薦行程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者紀錄景點</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>紀錄景點</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -435,23 +391,577 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用者查詢行程路線規劃清單</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>景點名產</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>附近景點名產連結項目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>查詢附近住宿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員推薦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>產生住宿</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改住宿訂單
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(是否作記錄?)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">刪除住宿訂單
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(是否作記錄? 記錄刪除原因)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>預定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>搭車紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(時程表)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>修改搭車行程</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">查詢搭車時間
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(含會員查詢另外搭車時間)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>刪除清單</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">紀錄訊息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(會員旅遊日誌打卡、 紀錄景點、心得))</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>紀錄景點</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>修改景點</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>查詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地區</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">附近景點
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(EX: 101大樓, 桃園地區)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名產</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>清單</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>推薦行程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>清單</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>查詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>某個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>景點名產</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>查詢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>推薦行程</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>查詢行程路線規劃清單</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>行程路線規劃清單刪除</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改搭車
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(系統作記錄修改資料, 會員修改舊資料為新資料)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">刪除搭車
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(系統作刪除記錄, 會員記錄刪除原因)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">刪除資料
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(系統作刪除記錄, 會員記錄刪除原因)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改資料
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(會員修改旅遊日誌打卡、 紀錄景點、心得)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -514,6 +1024,27 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -541,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,15 +1113,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,6 +1121,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +1184,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -975,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
@@ -1018,12 +1573,12 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1054,12 +1609,12 @@
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1091,12 +1646,12 @@
       <c r="H3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1128,12 +1683,12 @@
       <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1165,12 +1720,12 @@
       <c r="H5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1202,12 +1757,12 @@
       <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1238,12 +1793,12 @@
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1267,12 +1822,12 @@
       <c r="H8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1293,10 +1848,10 @@
       <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1317,10 +1872,10 @@
       <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1341,10 +1896,10 @@
       <c r="F11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1635,17 +2190,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1654,20 +2209,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1694,12 +2249,12 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1730,12 +2285,12 @@
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1767,12 +2322,12 @@
       <c r="H3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1804,12 +2359,12 @@
       <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1841,12 +2396,12 @@
       <c r="H5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1878,12 +2433,12 @@
       <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1914,124 +2469,124 @@
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
+      <c r="F9" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2055,86 +2610,86 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
+      <c r="F13" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
+      <c r="F14" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>36</v>
+      <c r="F15" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>36</v>
+      <c r="F16" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -2159,180 +2714,180 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
+      <c r="F18" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="F19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="E20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
+      <c r="F21" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>36</v>
+      <c r="E22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="E23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="F24" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>36</v>
+      <c r="F25" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2341,7 +2896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
